--- a/doc/completion_SpecAnalysis/CombinedTest/900系_結合テストデシジョンテーブル.xlsx
+++ b/doc/completion_SpecAnalysis/CombinedTest/900系_結合テストデシジョンテーブル.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="4905" yWindow="-15" windowWidth="15585" windowHeight="9495"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="14805" windowHeight="5055" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="得意先検索" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,8 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:N13"/>
 </workbook>
 </file>
 
@@ -1544,31 +1545,127 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1577,105 +1674,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1685,41 +1719,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1734,18 +1747,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2054,7 +2055,7 @@
   </sheetPr>
   <dimension ref="A1:AA23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
@@ -2076,116 +2077,116 @@
       </c>
     </row>
     <row r="2" spans="1:27">
-      <c r="A2" s="91" t="s">
+      <c r="A2" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="72" t="s">
+      <c r="B2" s="99" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="87" t="s">
+      <c r="D2" s="101" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="91">
+      <c r="E2" s="97">
         <v>1</v>
       </c>
-      <c r="F2" s="72">
+      <c r="F2" s="99">
         <v>2</v>
       </c>
-      <c r="G2" s="72">
+      <c r="G2" s="99">
         <v>3</v>
       </c>
-      <c r="H2" s="72">
+      <c r="H2" s="99">
         <v>4</v>
       </c>
-      <c r="I2" s="72">
+      <c r="I2" s="99">
         <v>4</v>
       </c>
-      <c r="J2" s="72">
+      <c r="J2" s="99">
         <v>5</v>
       </c>
-      <c r="K2" s="72">
+      <c r="K2" s="99">
         <v>5</v>
       </c>
-      <c r="L2" s="72">
+      <c r="L2" s="99">
         <v>6</v>
       </c>
-      <c r="M2" s="72">
+      <c r="M2" s="99">
         <v>7</v>
       </c>
-      <c r="N2" s="72">
+      <c r="N2" s="99">
         <v>8</v>
       </c>
-      <c r="O2" s="72">
+      <c r="O2" s="99">
         <v>9</v>
       </c>
-      <c r="P2" s="72">
+      <c r="P2" s="99">
         <v>9</v>
       </c>
-      <c r="Q2" s="72">
+      <c r="Q2" s="99">
         <v>9</v>
       </c>
-      <c r="R2" s="72">
+      <c r="R2" s="99">
         <v>10</v>
       </c>
-      <c r="S2" s="72">
+      <c r="S2" s="99">
         <v>11</v>
       </c>
-      <c r="T2" s="72">
+      <c r="T2" s="99">
         <v>12</v>
       </c>
-      <c r="U2" s="72">
+      <c r="U2" s="99">
         <v>13</v>
       </c>
-      <c r="V2" s="72">
+      <c r="V2" s="99">
         <v>14</v>
       </c>
-      <c r="W2" s="72">
+      <c r="W2" s="99">
         <v>15</v>
       </c>
-      <c r="X2" s="72">
+      <c r="X2" s="99">
         <v>16</v>
       </c>
-      <c r="Y2" s="72">
+      <c r="Y2" s="99">
         <v>17</v>
       </c>
-      <c r="Z2" s="72" t="s">
+      <c r="Z2" s="99" t="s">
         <v>57</v>
       </c>
-      <c r="AA2" s="87"/>
+      <c r="AA2" s="101"/>
     </row>
     <row r="3" spans="1:27">
-      <c r="A3" s="92"/>
-      <c r="B3" s="73"/>
+      <c r="A3" s="98"/>
+      <c r="B3" s="100"/>
       <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="88"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="73"/>
-      <c r="N3" s="73"/>
-      <c r="O3" s="73"/>
-      <c r="P3" s="73"/>
-      <c r="Q3" s="73"/>
-      <c r="R3" s="73"/>
-      <c r="S3" s="73"/>
-      <c r="T3" s="73"/>
-      <c r="U3" s="73"/>
-      <c r="V3" s="73"/>
-      <c r="W3" s="73"/>
-      <c r="X3" s="73"/>
-      <c r="Y3" s="73"/>
-      <c r="Z3" s="73"/>
-      <c r="AA3" s="88"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
+      <c r="J3" s="100"/>
+      <c r="K3" s="100"/>
+      <c r="L3" s="100"/>
+      <c r="M3" s="100"/>
+      <c r="N3" s="100"/>
+      <c r="O3" s="100"/>
+      <c r="P3" s="100"/>
+      <c r="Q3" s="100"/>
+      <c r="R3" s="100"/>
+      <c r="S3" s="100"/>
+      <c r="T3" s="100"/>
+      <c r="U3" s="100"/>
+      <c r="V3" s="100"/>
+      <c r="W3" s="100"/>
+      <c r="X3" s="100"/>
+      <c r="Y3" s="100"/>
+      <c r="Z3" s="100"/>
+      <c r="AA3" s="102"/>
     </row>
     <row r="4" spans="1:27" ht="20.25" customHeight="1">
       <c r="A4" s="17" t="s">
@@ -2480,542 +2481,542 @@
       <c r="AA9" s="24"/>
     </row>
     <row r="10" spans="1:27">
-      <c r="A10" s="110" t="s">
+      <c r="A10" s="84" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="113" t="s">
+      <c r="C10" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="112" t="s">
+      <c r="D10" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="93" t="s">
+      <c r="E10" s="103" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="78"/>
-      <c r="G10" s="78"/>
-      <c r="H10" s="78"/>
-      <c r="I10" s="78"/>
-      <c r="J10" s="78"/>
-      <c r="K10" s="78"/>
-      <c r="L10" s="78"/>
-      <c r="M10" s="78"/>
-      <c r="N10" s="78"/>
-      <c r="O10" s="78"/>
-      <c r="P10" s="78"/>
-      <c r="Q10" s="78"/>
-      <c r="R10" s="78"/>
-      <c r="S10" s="78"/>
-      <c r="T10" s="78"/>
-      <c r="U10" s="78"/>
-      <c r="V10" s="78" t="s">
+      <c r="F10" s="96"/>
+      <c r="G10" s="96"/>
+      <c r="H10" s="96"/>
+      <c r="I10" s="96"/>
+      <c r="J10" s="96"/>
+      <c r="K10" s="96"/>
+      <c r="L10" s="96"/>
+      <c r="M10" s="96"/>
+      <c r="N10" s="96"/>
+      <c r="O10" s="96"/>
+      <c r="P10" s="96"/>
+      <c r="Q10" s="96"/>
+      <c r="R10" s="96"/>
+      <c r="S10" s="96"/>
+      <c r="T10" s="96"/>
+      <c r="U10" s="96"/>
+      <c r="V10" s="96" t="s">
         <v>35</v>
       </c>
-      <c r="W10" s="80"/>
-      <c r="X10" s="80"/>
-      <c r="Y10" s="80"/>
-      <c r="Z10" s="80"/>
-      <c r="AA10" s="98"/>
+      <c r="W10" s="110"/>
+      <c r="X10" s="110"/>
+      <c r="Y10" s="110"/>
+      <c r="Z10" s="110"/>
+      <c r="AA10" s="105"/>
     </row>
     <row r="11" spans="1:27">
-      <c r="A11" s="111"/>
+      <c r="A11" s="85"/>
       <c r="B11" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="105"/>
-      <c r="D11" s="103"/>
-      <c r="E11" s="94"/>
-      <c r="F11" s="77"/>
-      <c r="G11" s="77"/>
-      <c r="H11" s="77"/>
-      <c r="I11" s="77"/>
-      <c r="J11" s="77"/>
-      <c r="K11" s="77"/>
-      <c r="L11" s="77"/>
-      <c r="M11" s="77"/>
-      <c r="N11" s="77"/>
-      <c r="O11" s="77"/>
-      <c r="P11" s="77"/>
-      <c r="Q11" s="77"/>
-      <c r="R11" s="77"/>
-      <c r="S11" s="77"/>
-      <c r="T11" s="77"/>
-      <c r="U11" s="77"/>
-      <c r="V11" s="77"/>
-      <c r="W11" s="77"/>
-      <c r="X11" s="77"/>
-      <c r="Y11" s="77"/>
-      <c r="Z11" s="77"/>
-      <c r="AA11" s="99"/>
+      <c r="C11" s="73"/>
+      <c r="D11" s="75"/>
+      <c r="E11" s="91"/>
+      <c r="F11" s="93"/>
+      <c r="G11" s="93"/>
+      <c r="H11" s="93"/>
+      <c r="I11" s="93"/>
+      <c r="J11" s="93"/>
+      <c r="K11" s="93"/>
+      <c r="L11" s="93"/>
+      <c r="M11" s="93"/>
+      <c r="N11" s="93"/>
+      <c r="O11" s="93"/>
+      <c r="P11" s="93"/>
+      <c r="Q11" s="93"/>
+      <c r="R11" s="93"/>
+      <c r="S11" s="93"/>
+      <c r="T11" s="93"/>
+      <c r="U11" s="93"/>
+      <c r="V11" s="93"/>
+      <c r="W11" s="93"/>
+      <c r="X11" s="93"/>
+      <c r="Y11" s="93"/>
+      <c r="Z11" s="93"/>
+      <c r="AA11" s="81"/>
     </row>
     <row r="12" spans="1:27">
-      <c r="A12" s="108" t="s">
+      <c r="A12" s="82" t="s">
         <v>9</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="83" t="s">
+      <c r="C12" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="85" t="s">
+      <c r="D12" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="96" t="s">
+      <c r="E12" s="94" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="74" t="s">
+      <c r="F12" s="108" t="s">
         <v>35</v>
       </c>
-      <c r="G12" s="74" t="s">
+      <c r="G12" s="108" t="s">
         <v>35</v>
       </c>
-      <c r="H12" s="74" t="s">
+      <c r="H12" s="108" t="s">
         <v>50</v>
       </c>
-      <c r="I12" s="74" t="s">
+      <c r="I12" s="108" t="s">
         <v>35</v>
       </c>
-      <c r="J12" s="74" t="s">
+      <c r="J12" s="108" t="s">
         <v>35</v>
       </c>
-      <c r="K12" s="74" t="s">
+      <c r="K12" s="108" t="s">
         <v>35</v>
       </c>
-      <c r="L12" s="74" t="s">
+      <c r="L12" s="108" t="s">
         <v>40</v>
       </c>
-      <c r="M12" s="74" t="s">
+      <c r="M12" s="108" t="s">
         <v>40</v>
       </c>
-      <c r="N12" s="74" t="s">
+      <c r="N12" s="108" t="s">
         <v>35</v>
       </c>
-      <c r="O12" s="74" t="s">
+      <c r="O12" s="108" t="s">
         <v>35</v>
       </c>
-      <c r="P12" s="74" t="s">
+      <c r="P12" s="108" t="s">
         <v>35</v>
       </c>
-      <c r="Q12" s="74" t="s">
+      <c r="Q12" s="108" t="s">
         <v>35</v>
       </c>
-      <c r="R12" s="74" t="s">
+      <c r="R12" s="108" t="s">
         <v>35</v>
       </c>
-      <c r="S12" s="74" t="s">
+      <c r="S12" s="108" t="s">
         <v>35</v>
       </c>
-      <c r="T12" s="74" t="s">
+      <c r="T12" s="108" t="s">
         <v>35</v>
       </c>
-      <c r="U12" s="74" t="s">
+      <c r="U12" s="108" t="s">
         <v>35</v>
       </c>
-      <c r="V12" s="74" t="s">
+      <c r="V12" s="108" t="s">
         <v>54</v>
       </c>
-      <c r="W12" s="74"/>
-      <c r="X12" s="74"/>
-      <c r="Y12" s="74"/>
-      <c r="Z12" s="74"/>
-      <c r="AA12" s="89"/>
+      <c r="W12" s="108"/>
+      <c r="X12" s="108"/>
+      <c r="Y12" s="108"/>
+      <c r="Z12" s="108"/>
+      <c r="AA12" s="106"/>
     </row>
     <row r="13" spans="1:27">
-      <c r="A13" s="110"/>
+      <c r="A13" s="84"/>
       <c r="B13" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="106"/>
-      <c r="D13" s="107"/>
-      <c r="E13" s="97"/>
-      <c r="F13" s="79"/>
-      <c r="G13" s="79"/>
-      <c r="H13" s="79"/>
-      <c r="I13" s="79"/>
-      <c r="J13" s="79"/>
-      <c r="K13" s="79"/>
-      <c r="L13" s="79"/>
-      <c r="M13" s="79"/>
-      <c r="N13" s="79"/>
-      <c r="O13" s="79"/>
-      <c r="P13" s="79"/>
-      <c r="Q13" s="79"/>
-      <c r="R13" s="79"/>
-      <c r="S13" s="79"/>
-      <c r="T13" s="79"/>
-      <c r="U13" s="79"/>
-      <c r="V13" s="79"/>
-      <c r="W13" s="79"/>
-      <c r="X13" s="79"/>
-      <c r="Y13" s="79"/>
-      <c r="Z13" s="79"/>
-      <c r="AA13" s="100"/>
+      <c r="C13" s="77"/>
+      <c r="D13" s="79"/>
+      <c r="E13" s="104"/>
+      <c r="F13" s="109"/>
+      <c r="G13" s="109"/>
+      <c r="H13" s="109"/>
+      <c r="I13" s="109"/>
+      <c r="J13" s="109"/>
+      <c r="K13" s="109"/>
+      <c r="L13" s="109"/>
+      <c r="M13" s="109"/>
+      <c r="N13" s="109"/>
+      <c r="O13" s="109"/>
+      <c r="P13" s="109"/>
+      <c r="Q13" s="109"/>
+      <c r="R13" s="109"/>
+      <c r="S13" s="109"/>
+      <c r="T13" s="109"/>
+      <c r="U13" s="109"/>
+      <c r="V13" s="109"/>
+      <c r="W13" s="109"/>
+      <c r="X13" s="109"/>
+      <c r="Y13" s="109"/>
+      <c r="Z13" s="109"/>
+      <c r="AA13" s="107"/>
     </row>
     <row r="14" spans="1:27">
-      <c r="A14" s="110"/>
+      <c r="A14" s="84"/>
       <c r="B14" s="5"/>
-      <c r="C14" s="104" t="s">
+      <c r="C14" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="102" t="s">
+      <c r="D14" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="95" t="s">
+      <c r="E14" s="90" t="s">
         <v>37</v>
       </c>
-      <c r="F14" s="76" t="s">
+      <c r="F14" s="92" t="s">
         <v>36</v>
       </c>
-      <c r="G14" s="76" t="s">
+      <c r="G14" s="92" t="s">
         <v>37</v>
       </c>
-      <c r="H14" s="76" t="s">
+      <c r="H14" s="92" t="s">
         <v>38</v>
       </c>
-      <c r="I14" s="76" t="s">
+      <c r="I14" s="92" t="s">
         <v>55</v>
       </c>
-      <c r="J14" s="76" t="s">
+      <c r="J14" s="92" t="s">
         <v>41</v>
       </c>
-      <c r="K14" s="76" t="s">
+      <c r="K14" s="92" t="s">
         <v>41</v>
       </c>
-      <c r="L14" s="76" t="s">
+      <c r="L14" s="92" t="s">
         <v>37</v>
       </c>
-      <c r="M14" s="76" t="s">
+      <c r="M14" s="92" t="s">
         <v>46</v>
       </c>
-      <c r="N14" s="76" t="s">
+      <c r="N14" s="92" t="s">
         <v>36</v>
       </c>
-      <c r="O14" s="76" t="s">
+      <c r="O14" s="92" t="s">
         <v>37</v>
       </c>
-      <c r="P14" s="76" t="s">
+      <c r="P14" s="92" t="s">
         <v>55</v>
       </c>
-      <c r="Q14" s="76" t="s">
+      <c r="Q14" s="92" t="s">
         <v>46</v>
       </c>
-      <c r="R14" s="76" t="s">
+      <c r="R14" s="92" t="s">
         <v>36</v>
       </c>
-      <c r="S14" s="76" t="s">
+      <c r="S14" s="92" t="s">
         <v>36</v>
       </c>
-      <c r="T14" s="76" t="s">
+      <c r="T14" s="92" t="s">
         <v>41</v>
       </c>
-      <c r="U14" s="76"/>
-      <c r="V14" s="76" t="s">
+      <c r="U14" s="92"/>
+      <c r="V14" s="92" t="s">
         <v>36</v>
       </c>
-      <c r="W14" s="76" t="s">
+      <c r="W14" s="92" t="s">
         <v>50</v>
       </c>
-      <c r="X14" s="76" t="s">
+      <c r="X14" s="92" t="s">
         <v>50</v>
       </c>
-      <c r="Y14" s="76" t="s">
+      <c r="Y14" s="92" t="s">
         <v>35</v>
       </c>
-      <c r="Z14" s="76"/>
-      <c r="AA14" s="101"/>
+      <c r="Z14" s="92"/>
+      <c r="AA14" s="80"/>
     </row>
     <row r="15" spans="1:27">
-      <c r="A15" s="111"/>
+      <c r="A15" s="85"/>
       <c r="B15" s="4"/>
-      <c r="C15" s="105"/>
-      <c r="D15" s="103"/>
-      <c r="E15" s="94"/>
-      <c r="F15" s="77"/>
-      <c r="G15" s="77"/>
-      <c r="H15" s="77"/>
-      <c r="I15" s="77"/>
-      <c r="J15" s="77"/>
-      <c r="K15" s="77"/>
-      <c r="L15" s="77"/>
-      <c r="M15" s="77"/>
-      <c r="N15" s="77"/>
-      <c r="O15" s="77"/>
-      <c r="P15" s="77"/>
-      <c r="Q15" s="77"/>
-      <c r="R15" s="77"/>
-      <c r="S15" s="77"/>
-      <c r="T15" s="77"/>
-      <c r="U15" s="77"/>
-      <c r="V15" s="77"/>
-      <c r="W15" s="77"/>
-      <c r="X15" s="77"/>
-      <c r="Y15" s="77"/>
-      <c r="Z15" s="77"/>
-      <c r="AA15" s="99"/>
+      <c r="C15" s="73"/>
+      <c r="D15" s="75"/>
+      <c r="E15" s="91"/>
+      <c r="F15" s="93"/>
+      <c r="G15" s="93"/>
+      <c r="H15" s="93"/>
+      <c r="I15" s="93"/>
+      <c r="J15" s="93"/>
+      <c r="K15" s="93"/>
+      <c r="L15" s="93"/>
+      <c r="M15" s="93"/>
+      <c r="N15" s="93"/>
+      <c r="O15" s="93"/>
+      <c r="P15" s="93"/>
+      <c r="Q15" s="93"/>
+      <c r="R15" s="93"/>
+      <c r="S15" s="93"/>
+      <c r="T15" s="93"/>
+      <c r="U15" s="93"/>
+      <c r="V15" s="93"/>
+      <c r="W15" s="93"/>
+      <c r="X15" s="93"/>
+      <c r="Y15" s="93"/>
+      <c r="Z15" s="93"/>
+      <c r="AA15" s="81"/>
     </row>
     <row r="16" spans="1:27">
-      <c r="A16" s="108" t="s">
+      <c r="A16" s="82" t="s">
         <v>11</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="83" t="s">
+      <c r="C16" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="85" t="s">
+      <c r="D16" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="E16" s="96" t="s">
+      <c r="E16" s="94" t="s">
         <v>38</v>
       </c>
-      <c r="F16" s="74" t="s">
+      <c r="F16" s="108" t="s">
         <v>38</v>
       </c>
-      <c r="G16" s="74" t="s">
+      <c r="G16" s="108" t="s">
         <v>38</v>
       </c>
-      <c r="H16" s="74" t="s">
+      <c r="H16" s="108" t="s">
         <v>39</v>
       </c>
-      <c r="I16" s="74" t="s">
+      <c r="I16" s="108" t="s">
         <v>47</v>
       </c>
-      <c r="J16" s="74" t="s">
+      <c r="J16" s="108" t="s">
         <v>47</v>
       </c>
-      <c r="K16" s="74" t="s">
+      <c r="K16" s="108" t="s">
         <v>39</v>
       </c>
-      <c r="L16" s="74" t="s">
+      <c r="L16" s="108" t="s">
         <v>38</v>
       </c>
-      <c r="M16" s="74" t="s">
+      <c r="M16" s="108" t="s">
         <v>47</v>
       </c>
-      <c r="N16" s="74" t="s">
+      <c r="N16" s="108" t="s">
         <v>38</v>
       </c>
-      <c r="O16" s="74" t="s">
+      <c r="O16" s="108" t="s">
         <v>38</v>
       </c>
-      <c r="P16" s="74"/>
-      <c r="Q16" s="74"/>
-      <c r="R16" s="74"/>
-      <c r="S16" s="74"/>
-      <c r="T16" s="74"/>
-      <c r="U16" s="74"/>
-      <c r="V16" s="74" t="s">
+      <c r="P16" s="108"/>
+      <c r="Q16" s="108"/>
+      <c r="R16" s="108"/>
+      <c r="S16" s="108"/>
+      <c r="T16" s="108"/>
+      <c r="U16" s="108"/>
+      <c r="V16" s="108" t="s">
         <v>37</v>
       </c>
-      <c r="W16" s="74" t="s">
+      <c r="W16" s="108" t="s">
         <v>38</v>
       </c>
-      <c r="X16" s="74"/>
-      <c r="Y16" s="74"/>
-      <c r="Z16" s="74"/>
-      <c r="AA16" s="89"/>
+      <c r="X16" s="108"/>
+      <c r="Y16" s="108"/>
+      <c r="Z16" s="108"/>
+      <c r="AA16" s="106"/>
     </row>
     <row r="17" spans="1:27">
-      <c r="A17" s="110"/>
+      <c r="A17" s="84"/>
       <c r="B17" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="106"/>
-      <c r="D17" s="107"/>
-      <c r="E17" s="97"/>
-      <c r="F17" s="79"/>
-      <c r="G17" s="79"/>
-      <c r="H17" s="79"/>
-      <c r="I17" s="79"/>
-      <c r="J17" s="79"/>
-      <c r="K17" s="79"/>
-      <c r="L17" s="79"/>
-      <c r="M17" s="79"/>
-      <c r="N17" s="79"/>
-      <c r="O17" s="79"/>
-      <c r="P17" s="79"/>
-      <c r="Q17" s="79"/>
-      <c r="R17" s="79"/>
-      <c r="S17" s="79"/>
-      <c r="T17" s="79"/>
-      <c r="U17" s="79"/>
-      <c r="V17" s="79"/>
-      <c r="W17" s="79"/>
-      <c r="X17" s="79"/>
-      <c r="Y17" s="79"/>
-      <c r="Z17" s="79"/>
-      <c r="AA17" s="100"/>
+      <c r="C17" s="77"/>
+      <c r="D17" s="79"/>
+      <c r="E17" s="104"/>
+      <c r="F17" s="109"/>
+      <c r="G17" s="109"/>
+      <c r="H17" s="109"/>
+      <c r="I17" s="109"/>
+      <c r="J17" s="109"/>
+      <c r="K17" s="109"/>
+      <c r="L17" s="109"/>
+      <c r="M17" s="109"/>
+      <c r="N17" s="109"/>
+      <c r="O17" s="109"/>
+      <c r="P17" s="109"/>
+      <c r="Q17" s="109"/>
+      <c r="R17" s="109"/>
+      <c r="S17" s="109"/>
+      <c r="T17" s="109"/>
+      <c r="U17" s="109"/>
+      <c r="V17" s="109"/>
+      <c r="W17" s="109"/>
+      <c r="X17" s="109"/>
+      <c r="Y17" s="109"/>
+      <c r="Z17" s="109"/>
+      <c r="AA17" s="107"/>
     </row>
     <row r="18" spans="1:27">
-      <c r="A18" s="110"/>
+      <c r="A18" s="84"/>
       <c r="B18" s="5"/>
-      <c r="C18" s="104" t="s">
+      <c r="C18" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="102" t="s">
+      <c r="D18" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="95"/>
-      <c r="F18" s="76"/>
-      <c r="G18" s="76"/>
-      <c r="H18" s="76"/>
-      <c r="I18" s="76" t="s">
+      <c r="E18" s="90"/>
+      <c r="F18" s="92"/>
+      <c r="G18" s="92"/>
+      <c r="H18" s="92"/>
+      <c r="I18" s="92" t="s">
         <v>37</v>
       </c>
-      <c r="J18" s="76" t="s">
+      <c r="J18" s="92" t="s">
         <v>37</v>
       </c>
-      <c r="K18" s="76" t="s">
+      <c r="K18" s="92" t="s">
         <v>37</v>
       </c>
-      <c r="L18" s="76"/>
-      <c r="M18" s="76" t="s">
+      <c r="L18" s="92"/>
+      <c r="M18" s="92" t="s">
         <v>38</v>
       </c>
-      <c r="N18" s="76"/>
-      <c r="O18" s="76"/>
-      <c r="P18" s="76" t="s">
+      <c r="N18" s="92"/>
+      <c r="O18" s="92"/>
+      <c r="P18" s="92" t="s">
         <v>38</v>
       </c>
-      <c r="Q18" s="76" t="s">
+      <c r="Q18" s="92" t="s">
         <v>38</v>
       </c>
-      <c r="R18" s="76"/>
-      <c r="S18" s="76" t="s">
+      <c r="R18" s="92"/>
+      <c r="S18" s="92" t="s">
         <v>37</v>
       </c>
-      <c r="T18" s="76" t="s">
+      <c r="T18" s="92" t="s">
         <v>37</v>
       </c>
-      <c r="U18" s="76"/>
-      <c r="V18" s="76"/>
-      <c r="W18" s="76" t="s">
+      <c r="U18" s="92"/>
+      <c r="V18" s="92"/>
+      <c r="W18" s="92" t="s">
         <v>36</v>
       </c>
-      <c r="X18" s="76" t="s">
+      <c r="X18" s="92" t="s">
         <v>36</v>
       </c>
-      <c r="Y18" s="76" t="s">
+      <c r="Y18" s="92" t="s">
         <v>36</v>
       </c>
-      <c r="Z18" s="76"/>
-      <c r="AA18" s="101"/>
+      <c r="Z18" s="92"/>
+      <c r="AA18" s="80"/>
     </row>
     <row r="19" spans="1:27">
-      <c r="A19" s="111"/>
+      <c r="A19" s="85"/>
       <c r="B19" s="4"/>
-      <c r="C19" s="105"/>
-      <c r="D19" s="103"/>
-      <c r="E19" s="94"/>
-      <c r="F19" s="77"/>
-      <c r="G19" s="77"/>
-      <c r="H19" s="77"/>
-      <c r="I19" s="77"/>
-      <c r="J19" s="77"/>
-      <c r="K19" s="77"/>
-      <c r="L19" s="77"/>
-      <c r="M19" s="77"/>
-      <c r="N19" s="77"/>
-      <c r="O19" s="77"/>
-      <c r="P19" s="77"/>
-      <c r="Q19" s="77"/>
-      <c r="R19" s="77"/>
-      <c r="S19" s="77"/>
-      <c r="T19" s="77"/>
-      <c r="U19" s="77"/>
-      <c r="V19" s="77"/>
-      <c r="W19" s="77"/>
-      <c r="X19" s="77"/>
-      <c r="Y19" s="77"/>
-      <c r="Z19" s="77"/>
-      <c r="AA19" s="99"/>
+      <c r="C19" s="73"/>
+      <c r="D19" s="75"/>
+      <c r="E19" s="91"/>
+      <c r="F19" s="93"/>
+      <c r="G19" s="93"/>
+      <c r="H19" s="93"/>
+      <c r="I19" s="93"/>
+      <c r="J19" s="93"/>
+      <c r="K19" s="93"/>
+      <c r="L19" s="93"/>
+      <c r="M19" s="93"/>
+      <c r="N19" s="93"/>
+      <c r="O19" s="93"/>
+      <c r="P19" s="93"/>
+      <c r="Q19" s="93"/>
+      <c r="R19" s="93"/>
+      <c r="S19" s="93"/>
+      <c r="T19" s="93"/>
+      <c r="U19" s="93"/>
+      <c r="V19" s="93"/>
+      <c r="W19" s="93"/>
+      <c r="X19" s="93"/>
+      <c r="Y19" s="93"/>
+      <c r="Z19" s="93"/>
+      <c r="AA19" s="81"/>
     </row>
     <row r="20" spans="1:27">
-      <c r="A20" s="108" t="s">
+      <c r="A20" s="82" t="s">
         <v>20</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="83" t="s">
+      <c r="C20" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="85" t="s">
+      <c r="D20" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="E20" s="96" t="s">
+      <c r="E20" s="94" t="s">
         <v>39</v>
       </c>
-      <c r="F20" s="74"/>
-      <c r="G20" s="74"/>
-      <c r="H20" s="74"/>
-      <c r="I20" s="74"/>
-      <c r="J20" s="74"/>
-      <c r="K20" s="74"/>
-      <c r="L20" s="74"/>
-      <c r="M20" s="74"/>
-      <c r="N20" s="74"/>
-      <c r="O20" s="74"/>
-      <c r="P20" s="74"/>
-      <c r="Q20" s="74"/>
-      <c r="R20" s="74"/>
-      <c r="S20" s="74"/>
-      <c r="T20" s="74"/>
-      <c r="U20" s="74"/>
-      <c r="V20" s="74" t="s">
+      <c r="F20" s="108"/>
+      <c r="G20" s="108"/>
+      <c r="H20" s="108"/>
+      <c r="I20" s="108"/>
+      <c r="J20" s="108"/>
+      <c r="K20" s="108"/>
+      <c r="L20" s="108"/>
+      <c r="M20" s="108"/>
+      <c r="N20" s="108"/>
+      <c r="O20" s="108"/>
+      <c r="P20" s="108"/>
+      <c r="Q20" s="108"/>
+      <c r="R20" s="108"/>
+      <c r="S20" s="108"/>
+      <c r="T20" s="108"/>
+      <c r="U20" s="108"/>
+      <c r="V20" s="108" t="s">
         <v>38</v>
       </c>
-      <c r="W20" s="74"/>
-      <c r="X20" s="74"/>
-      <c r="Y20" s="74"/>
-      <c r="Z20" s="74"/>
-      <c r="AA20" s="89"/>
+      <c r="W20" s="108"/>
+      <c r="X20" s="108"/>
+      <c r="Y20" s="108"/>
+      <c r="Z20" s="108"/>
+      <c r="AA20" s="106"/>
     </row>
     <row r="21" spans="1:27" ht="14.25" thickBot="1">
-      <c r="A21" s="109"/>
+      <c r="A21" s="83"/>
       <c r="B21" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="84"/>
-      <c r="D21" s="86"/>
-      <c r="E21" s="114"/>
-      <c r="F21" s="75"/>
-      <c r="G21" s="75"/>
-      <c r="H21" s="75"/>
-      <c r="I21" s="75"/>
-      <c r="J21" s="75"/>
-      <c r="K21" s="75"/>
-      <c r="L21" s="75"/>
-      <c r="M21" s="75"/>
-      <c r="N21" s="75"/>
-      <c r="O21" s="75"/>
-      <c r="P21" s="75"/>
-      <c r="Q21" s="75"/>
-      <c r="R21" s="75"/>
-      <c r="S21" s="75"/>
-      <c r="T21" s="75"/>
-      <c r="U21" s="75"/>
-      <c r="V21" s="75"/>
-      <c r="W21" s="75"/>
-      <c r="X21" s="75"/>
-      <c r="Y21" s="75"/>
-      <c r="Z21" s="75"/>
-      <c r="AA21" s="90"/>
+      <c r="C21" s="88"/>
+      <c r="D21" s="89"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="111"/>
+      <c r="G21" s="111"/>
+      <c r="H21" s="111"/>
+      <c r="I21" s="111"/>
+      <c r="J21" s="111"/>
+      <c r="K21" s="111"/>
+      <c r="L21" s="111"/>
+      <c r="M21" s="111"/>
+      <c r="N21" s="111"/>
+      <c r="O21" s="111"/>
+      <c r="P21" s="111"/>
+      <c r="Q21" s="111"/>
+      <c r="R21" s="111"/>
+      <c r="S21" s="111"/>
+      <c r="T21" s="111"/>
+      <c r="U21" s="111"/>
+      <c r="V21" s="111"/>
+      <c r="W21" s="111"/>
+      <c r="X21" s="111"/>
+      <c r="Y21" s="111"/>
+      <c r="Z21" s="111"/>
+      <c r="AA21" s="112"/>
     </row>
     <row r="22" spans="1:27">
-      <c r="A22" s="81" t="s">
+      <c r="A22" s="113" t="s">
         <v>42</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="83"/>
-      <c r="D22" s="85"/>
+      <c r="C22" s="76"/>
+      <c r="D22" s="78"/>
       <c r="E22" s="8" t="s">
         <v>44</v>
       </c>
@@ -3063,10 +3064,10 @@
       <c r="AA22" s="10"/>
     </row>
     <row r="23" spans="1:27" ht="14.25" thickBot="1">
-      <c r="A23" s="82"/>
+      <c r="A23" s="114"/>
       <c r="B23" s="7"/>
-      <c r="C23" s="84"/>
-      <c r="D23" s="86"/>
+      <c r="C23" s="88"/>
+      <c r="D23" s="89"/>
       <c r="E23" s="11"/>
       <c r="F23" s="12"/>
       <c r="G23" s="12"/>
@@ -3093,6 +3094,165 @@
     </row>
   </sheetData>
   <mergeCells count="183">
+    <mergeCell ref="X2:X3"/>
+    <mergeCell ref="Y2:Y3"/>
+    <mergeCell ref="Z2:Z3"/>
+    <mergeCell ref="Y20:Y21"/>
+    <mergeCell ref="Z20:Z21"/>
+    <mergeCell ref="Y18:Y19"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="Q10:Q11"/>
+    <mergeCell ref="Q12:Q13"/>
+    <mergeCell ref="Q14:Q15"/>
+    <mergeCell ref="Q16:Q17"/>
+    <mergeCell ref="Q18:Q19"/>
+    <mergeCell ref="Q20:Q21"/>
+    <mergeCell ref="Y14:Y15"/>
+    <mergeCell ref="Z14:Z15"/>
+    <mergeCell ref="Y16:Y17"/>
+    <mergeCell ref="Z16:Z17"/>
+    <mergeCell ref="Z18:Z19"/>
+    <mergeCell ref="Y12:Y13"/>
+    <mergeCell ref="Z12:Z13"/>
+    <mergeCell ref="Y10:Y11"/>
+    <mergeCell ref="Z10:Z11"/>
+    <mergeCell ref="T20:T21"/>
+    <mergeCell ref="U20:U21"/>
+    <mergeCell ref="V20:V21"/>
+    <mergeCell ref="X10:X11"/>
+    <mergeCell ref="X12:X13"/>
+    <mergeCell ref="X16:X17"/>
+    <mergeCell ref="X18:X19"/>
+    <mergeCell ref="X20:X21"/>
+    <mergeCell ref="X14:X15"/>
+    <mergeCell ref="V10:V11"/>
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="N20:N21"/>
+    <mergeCell ref="O20:O21"/>
+    <mergeCell ref="R20:R21"/>
+    <mergeCell ref="S20:S21"/>
+    <mergeCell ref="P20:P21"/>
+    <mergeCell ref="T16:T17"/>
+    <mergeCell ref="U16:U17"/>
+    <mergeCell ref="V16:V17"/>
+    <mergeCell ref="S18:S19"/>
+    <mergeCell ref="T18:T19"/>
+    <mergeCell ref="U18:U19"/>
+    <mergeCell ref="V18:V19"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="O16:O17"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="O18:O19"/>
+    <mergeCell ref="R18:R19"/>
+    <mergeCell ref="P18:P19"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="U12:U13"/>
+    <mergeCell ref="P12:P13"/>
+    <mergeCell ref="P14:P15"/>
+    <mergeCell ref="P16:P17"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="R16:R17"/>
+    <mergeCell ref="S16:S17"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="V12:V13"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="O14:O15"/>
+    <mergeCell ref="R14:R15"/>
+    <mergeCell ref="S14:S15"/>
+    <mergeCell ref="T14:T15"/>
+    <mergeCell ref="U14:U15"/>
+    <mergeCell ref="V14:V15"/>
+    <mergeCell ref="P10:P11"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="W2:W3"/>
+    <mergeCell ref="AA2:AA3"/>
+    <mergeCell ref="W10:W11"/>
+    <mergeCell ref="W12:W13"/>
+    <mergeCell ref="W14:W15"/>
+    <mergeCell ref="W16:W17"/>
+    <mergeCell ref="W20:W21"/>
+    <mergeCell ref="AA20:AA21"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="V2:V3"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="R10:R11"/>
+    <mergeCell ref="S10:S11"/>
+    <mergeCell ref="T10:T11"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="AA10:AA11"/>
+    <mergeCell ref="AA12:AA13"/>
+    <mergeCell ref="AA16:AA17"/>
+    <mergeCell ref="AA14:AA15"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="O12:O13"/>
+    <mergeCell ref="R12:R13"/>
+    <mergeCell ref="S12:S13"/>
+    <mergeCell ref="T12:T13"/>
+    <mergeCell ref="D14:D15"/>
     <mergeCell ref="C18:C19"/>
     <mergeCell ref="D18:D19"/>
     <mergeCell ref="C12:C13"/>
@@ -3117,165 +3277,6 @@
     <mergeCell ref="H10:H11"/>
     <mergeCell ref="K10:K11"/>
     <mergeCell ref="U10:U11"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="AA10:AA11"/>
-    <mergeCell ref="AA12:AA13"/>
-    <mergeCell ref="AA16:AA17"/>
-    <mergeCell ref="AA14:AA15"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="N12:N13"/>
-    <mergeCell ref="O12:O13"/>
-    <mergeCell ref="R12:R13"/>
-    <mergeCell ref="S12:S13"/>
-    <mergeCell ref="T12:T13"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="W2:W3"/>
-    <mergeCell ref="AA2:AA3"/>
-    <mergeCell ref="W10:W11"/>
-    <mergeCell ref="W12:W13"/>
-    <mergeCell ref="W14:W15"/>
-    <mergeCell ref="W16:W17"/>
-    <mergeCell ref="W20:W21"/>
-    <mergeCell ref="AA20:AA21"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="V2:V3"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="N10:N11"/>
-    <mergeCell ref="O10:O11"/>
-    <mergeCell ref="R10:R11"/>
-    <mergeCell ref="S10:S11"/>
-    <mergeCell ref="T10:T11"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="V12:V13"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="N14:N15"/>
-    <mergeCell ref="O14:O15"/>
-    <mergeCell ref="R14:R15"/>
-    <mergeCell ref="S14:S15"/>
-    <mergeCell ref="T14:T15"/>
-    <mergeCell ref="U14:U15"/>
-    <mergeCell ref="V14:V15"/>
-    <mergeCell ref="P10:P11"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="U12:U13"/>
-    <mergeCell ref="P12:P13"/>
-    <mergeCell ref="P14:P15"/>
-    <mergeCell ref="P16:P17"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="R16:R17"/>
-    <mergeCell ref="S16:S17"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="N18:N19"/>
-    <mergeCell ref="O18:O19"/>
-    <mergeCell ref="R18:R19"/>
-    <mergeCell ref="P18:P19"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="V20:V21"/>
-    <mergeCell ref="X10:X11"/>
-    <mergeCell ref="X12:X13"/>
-    <mergeCell ref="X16:X17"/>
-    <mergeCell ref="X18:X19"/>
-    <mergeCell ref="X20:X21"/>
-    <mergeCell ref="X14:X15"/>
-    <mergeCell ref="V10:V11"/>
-    <mergeCell ref="M20:M21"/>
-    <mergeCell ref="N20:N21"/>
-    <mergeCell ref="O20:O21"/>
-    <mergeCell ref="R20:R21"/>
-    <mergeCell ref="S20:S21"/>
-    <mergeCell ref="P20:P21"/>
-    <mergeCell ref="T16:T17"/>
-    <mergeCell ref="U16:U17"/>
-    <mergeCell ref="V16:V17"/>
-    <mergeCell ref="S18:S19"/>
-    <mergeCell ref="T18:T19"/>
-    <mergeCell ref="U18:U19"/>
-    <mergeCell ref="V18:V19"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="N16:N17"/>
-    <mergeCell ref="O16:O17"/>
-    <mergeCell ref="X2:X3"/>
-    <mergeCell ref="Y2:Y3"/>
-    <mergeCell ref="Z2:Z3"/>
-    <mergeCell ref="Y20:Y21"/>
-    <mergeCell ref="Z20:Z21"/>
-    <mergeCell ref="Y18:Y19"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="Q10:Q11"/>
-    <mergeCell ref="Q12:Q13"/>
-    <mergeCell ref="Q14:Q15"/>
-    <mergeCell ref="Q16:Q17"/>
-    <mergeCell ref="Q18:Q19"/>
-    <mergeCell ref="Q20:Q21"/>
-    <mergeCell ref="Y14:Y15"/>
-    <mergeCell ref="Z14:Z15"/>
-    <mergeCell ref="Y16:Y17"/>
-    <mergeCell ref="Z16:Z17"/>
-    <mergeCell ref="Z18:Z19"/>
-    <mergeCell ref="Y12:Y13"/>
-    <mergeCell ref="Z12:Z13"/>
-    <mergeCell ref="Y10:Y11"/>
-    <mergeCell ref="Z10:Z11"/>
-    <mergeCell ref="T20:T21"/>
-    <mergeCell ref="U20:U21"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3290,7 +3291,7 @@
   </sheetPr>
   <dimension ref="A1:V18"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
@@ -3312,98 +3313,98 @@
       </c>
     </row>
     <row r="2" spans="1:22">
-      <c r="A2" s="91" t="s">
+      <c r="A2" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="72" t="s">
+      <c r="B2" s="99" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="87" t="s">
+      <c r="D2" s="101" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="91">
+      <c r="E2" s="97">
         <v>1</v>
       </c>
-      <c r="F2" s="72">
+      <c r="F2" s="99">
         <v>2</v>
       </c>
-      <c r="G2" s="72">
+      <c r="G2" s="99">
         <v>3</v>
       </c>
-      <c r="H2" s="72">
+      <c r="H2" s="99">
         <v>4</v>
       </c>
-      <c r="I2" s="72">
+      <c r="I2" s="99">
         <v>4</v>
       </c>
-      <c r="J2" s="72">
+      <c r="J2" s="99">
         <v>5</v>
       </c>
-      <c r="K2" s="72">
+      <c r="K2" s="99">
         <v>5</v>
       </c>
-      <c r="L2" s="72">
+      <c r="L2" s="99">
         <v>6</v>
       </c>
-      <c r="M2" s="72">
+      <c r="M2" s="99">
         <v>7</v>
       </c>
-      <c r="N2" s="72">
+      <c r="N2" s="99">
         <v>8</v>
       </c>
-      <c r="O2" s="72">
+      <c r="O2" s="99">
         <v>9</v>
       </c>
-      <c r="P2" s="72">
+      <c r="P2" s="99">
         <v>9</v>
       </c>
-      <c r="Q2" s="72">
+      <c r="Q2" s="99">
         <v>9</v>
       </c>
-      <c r="R2" s="72">
+      <c r="R2" s="99">
         <v>10</v>
       </c>
-      <c r="S2" s="72">
+      <c r="S2" s="99">
         <v>11</v>
       </c>
-      <c r="T2" s="72">
+      <c r="T2" s="99">
         <v>12</v>
       </c>
-      <c r="U2" s="72">
+      <c r="U2" s="99">
         <v>13</v>
       </c>
-      <c r="V2" s="72">
+      <c r="V2" s="99">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:22">
-      <c r="A3" s="92"/>
-      <c r="B3" s="73"/>
+      <c r="A3" s="98"/>
+      <c r="B3" s="100"/>
       <c r="C3" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="88"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="73"/>
-      <c r="N3" s="73"/>
-      <c r="O3" s="73"/>
-      <c r="P3" s="73"/>
-      <c r="Q3" s="73"/>
-      <c r="R3" s="73"/>
-      <c r="S3" s="73"/>
-      <c r="T3" s="73"/>
-      <c r="U3" s="73"/>
-      <c r="V3" s="73"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
+      <c r="J3" s="100"/>
+      <c r="K3" s="100"/>
+      <c r="L3" s="100"/>
+      <c r="M3" s="100"/>
+      <c r="N3" s="100"/>
+      <c r="O3" s="100"/>
+      <c r="P3" s="100"/>
+      <c r="Q3" s="100"/>
+      <c r="R3" s="100"/>
+      <c r="S3" s="100"/>
+      <c r="T3" s="100"/>
+      <c r="U3" s="100"/>
+      <c r="V3" s="100"/>
     </row>
     <row r="4" spans="1:22" ht="20.25" customHeight="1">
       <c r="A4" s="41" t="s">
@@ -3526,132 +3527,132 @@
       <c r="V7" s="26"/>
     </row>
     <row r="8" spans="1:22" ht="27">
-      <c r="A8" s="127" t="s">
+      <c r="A8" s="122" t="s">
         <v>88</v>
       </c>
       <c r="B8" s="59" t="s">
         <v>89</v>
       </c>
-      <c r="C8" s="125" t="s">
+      <c r="C8" s="118" t="s">
         <v>90</v>
       </c>
-      <c r="D8" s="126" t="s">
+      <c r="D8" s="120" t="s">
         <v>91</v>
       </c>
-      <c r="E8" s="93" t="s">
+      <c r="E8" s="103" t="s">
         <v>110</v>
       </c>
-      <c r="F8" s="78" t="s">
+      <c r="F8" s="96" t="s">
         <v>110</v>
       </c>
-      <c r="G8" s="78" t="s">
+      <c r="G8" s="96" t="s">
         <v>110</v>
       </c>
-      <c r="H8" s="78"/>
-      <c r="I8" s="78"/>
-      <c r="J8" s="78"/>
-      <c r="K8" s="78"/>
-      <c r="L8" s="78"/>
-      <c r="M8" s="78"/>
-      <c r="N8" s="78"/>
-      <c r="O8" s="78"/>
-      <c r="P8" s="78"/>
-      <c r="Q8" s="78"/>
-      <c r="R8" s="78"/>
-      <c r="S8" s="78"/>
-      <c r="T8" s="78"/>
-      <c r="U8" s="78"/>
-      <c r="V8" s="78"/>
+      <c r="H8" s="96"/>
+      <c r="I8" s="96"/>
+      <c r="J8" s="96"/>
+      <c r="K8" s="96"/>
+      <c r="L8" s="96"/>
+      <c r="M8" s="96"/>
+      <c r="N8" s="96"/>
+      <c r="O8" s="96"/>
+      <c r="P8" s="96"/>
+      <c r="Q8" s="96"/>
+      <c r="R8" s="96"/>
+      <c r="S8" s="96"/>
+      <c r="T8" s="96"/>
+      <c r="U8" s="96"/>
+      <c r="V8" s="96"/>
     </row>
     <row r="9" spans="1:22">
-      <c r="A9" s="121"/>
+      <c r="A9" s="123"/>
       <c r="B9" s="40" t="s">
         <v>92</v>
       </c>
-      <c r="C9" s="123"/>
-      <c r="D9" s="124"/>
-      <c r="E9" s="94"/>
-      <c r="F9" s="77"/>
-      <c r="G9" s="77"/>
-      <c r="H9" s="77"/>
-      <c r="I9" s="77"/>
-      <c r="J9" s="77"/>
-      <c r="K9" s="77"/>
-      <c r="L9" s="77"/>
-      <c r="M9" s="77"/>
-      <c r="N9" s="77"/>
-      <c r="O9" s="77"/>
-      <c r="P9" s="77"/>
-      <c r="Q9" s="77"/>
-      <c r="R9" s="77"/>
-      <c r="S9" s="77"/>
-      <c r="T9" s="77"/>
-      <c r="U9" s="77"/>
-      <c r="V9" s="77"/>
+      <c r="C9" s="119"/>
+      <c r="D9" s="121"/>
+      <c r="E9" s="91"/>
+      <c r="F9" s="93"/>
+      <c r="G9" s="93"/>
+      <c r="H9" s="93"/>
+      <c r="I9" s="93"/>
+      <c r="J9" s="93"/>
+      <c r="K9" s="93"/>
+      <c r="L9" s="93"/>
+      <c r="M9" s="93"/>
+      <c r="N9" s="93"/>
+      <c r="O9" s="93"/>
+      <c r="P9" s="93"/>
+      <c r="Q9" s="93"/>
+      <c r="R9" s="93"/>
+      <c r="S9" s="93"/>
+      <c r="T9" s="93"/>
+      <c r="U9" s="93"/>
+      <c r="V9" s="93"/>
     </row>
     <row r="10" spans="1:22">
-      <c r="A10" s="115" t="s">
+      <c r="A10" s="124" t="s">
         <v>93</v>
       </c>
       <c r="B10" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="C10" s="122" t="s">
+      <c r="C10" s="125" t="s">
         <v>104</v>
       </c>
-      <c r="D10" s="119" t="s">
+      <c r="D10" s="126" t="s">
         <v>105</v>
       </c>
-      <c r="E10" s="96" t="s">
+      <c r="E10" s="94" t="s">
         <v>111</v>
       </c>
-      <c r="F10" s="74" t="s">
+      <c r="F10" s="108" t="s">
         <v>116</v>
       </c>
-      <c r="G10" s="74" t="s">
+      <c r="G10" s="108" t="s">
         <v>116</v>
       </c>
-      <c r="H10" s="74"/>
-      <c r="I10" s="74"/>
-      <c r="J10" s="74"/>
-      <c r="K10" s="74"/>
-      <c r="L10" s="74"/>
-      <c r="M10" s="74"/>
-      <c r="N10" s="74"/>
-      <c r="O10" s="74"/>
-      <c r="P10" s="74"/>
-      <c r="Q10" s="74"/>
-      <c r="R10" s="74"/>
-      <c r="S10" s="74"/>
-      <c r="T10" s="74"/>
-      <c r="U10" s="74"/>
-      <c r="V10" s="74"/>
+      <c r="H10" s="108"/>
+      <c r="I10" s="108"/>
+      <c r="J10" s="108"/>
+      <c r="K10" s="108"/>
+      <c r="L10" s="108"/>
+      <c r="M10" s="108"/>
+      <c r="N10" s="108"/>
+      <c r="O10" s="108"/>
+      <c r="P10" s="108"/>
+      <c r="Q10" s="108"/>
+      <c r="R10" s="108"/>
+      <c r="S10" s="108"/>
+      <c r="T10" s="108"/>
+      <c r="U10" s="108"/>
+      <c r="V10" s="108"/>
     </row>
     <row r="11" spans="1:22">
-      <c r="A11" s="121"/>
+      <c r="A11" s="123"/>
       <c r="B11" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="C11" s="123"/>
-      <c r="D11" s="124"/>
-      <c r="E11" s="94"/>
-      <c r="F11" s="77"/>
-      <c r="G11" s="77"/>
-      <c r="H11" s="77"/>
-      <c r="I11" s="77"/>
-      <c r="J11" s="77"/>
-      <c r="K11" s="77"/>
-      <c r="L11" s="77"/>
-      <c r="M11" s="77"/>
-      <c r="N11" s="77"/>
-      <c r="O11" s="77"/>
-      <c r="P11" s="77"/>
-      <c r="Q11" s="77"/>
-      <c r="R11" s="77"/>
-      <c r="S11" s="77"/>
-      <c r="T11" s="77"/>
-      <c r="U11" s="77"/>
-      <c r="V11" s="77"/>
+      <c r="C11" s="119"/>
+      <c r="D11" s="121"/>
+      <c r="E11" s="91"/>
+      <c r="F11" s="93"/>
+      <c r="G11" s="93"/>
+      <c r="H11" s="93"/>
+      <c r="I11" s="93"/>
+      <c r="J11" s="93"/>
+      <c r="K11" s="93"/>
+      <c r="L11" s="93"/>
+      <c r="M11" s="93"/>
+      <c r="N11" s="93"/>
+      <c r="O11" s="93"/>
+      <c r="P11" s="93"/>
+      <c r="Q11" s="93"/>
+      <c r="R11" s="93"/>
+      <c r="S11" s="93"/>
+      <c r="T11" s="93"/>
+      <c r="U11" s="93"/>
+      <c r="V11" s="93"/>
     </row>
     <row r="12" spans="1:22">
       <c r="A12" s="62" t="s">
@@ -3666,26 +3667,26 @@
       <c r="D12" s="63" t="s">
         <v>107</v>
       </c>
-      <c r="E12" s="93" t="s">
+      <c r="E12" s="103" t="s">
         <v>112</v>
       </c>
-      <c r="F12" s="80"/>
-      <c r="G12" s="80"/>
-      <c r="H12" s="80"/>
-      <c r="I12" s="80"/>
-      <c r="J12" s="74"/>
-      <c r="K12" s="74"/>
-      <c r="L12" s="74"/>
-      <c r="M12" s="74"/>
-      <c r="N12" s="74"/>
-      <c r="O12" s="74"/>
-      <c r="P12" s="74"/>
-      <c r="Q12" s="74"/>
-      <c r="R12" s="74"/>
-      <c r="S12" s="74"/>
-      <c r="T12" s="74"/>
-      <c r="U12" s="74"/>
-      <c r="V12" s="74"/>
+      <c r="F12" s="110"/>
+      <c r="G12" s="110"/>
+      <c r="H12" s="110"/>
+      <c r="I12" s="110"/>
+      <c r="J12" s="108"/>
+      <c r="K12" s="108"/>
+      <c r="L12" s="108"/>
+      <c r="M12" s="108"/>
+      <c r="N12" s="108"/>
+      <c r="O12" s="108"/>
+      <c r="P12" s="108"/>
+      <c r="Q12" s="108"/>
+      <c r="R12" s="108"/>
+      <c r="S12" s="108"/>
+      <c r="T12" s="108"/>
+      <c r="U12" s="108"/>
+      <c r="V12" s="108"/>
     </row>
     <row r="13" spans="1:22">
       <c r="A13" s="62"/>
@@ -3694,87 +3695,87 @@
       </c>
       <c r="C13" s="44"/>
       <c r="D13" s="63"/>
-      <c r="E13" s="94"/>
-      <c r="F13" s="77"/>
-      <c r="G13" s="77"/>
-      <c r="H13" s="77"/>
-      <c r="I13" s="77"/>
-      <c r="J13" s="77"/>
-      <c r="K13" s="77"/>
-      <c r="L13" s="77"/>
-      <c r="M13" s="77"/>
-      <c r="N13" s="77"/>
-      <c r="O13" s="77"/>
-      <c r="P13" s="77"/>
-      <c r="Q13" s="77"/>
-      <c r="R13" s="77"/>
-      <c r="S13" s="77"/>
-      <c r="T13" s="77"/>
-      <c r="U13" s="77"/>
-      <c r="V13" s="77"/>
+      <c r="E13" s="91"/>
+      <c r="F13" s="93"/>
+      <c r="G13" s="93"/>
+      <c r="H13" s="93"/>
+      <c r="I13" s="93"/>
+      <c r="J13" s="93"/>
+      <c r="K13" s="93"/>
+      <c r="L13" s="93"/>
+      <c r="M13" s="93"/>
+      <c r="N13" s="93"/>
+      <c r="O13" s="93"/>
+      <c r="P13" s="93"/>
+      <c r="Q13" s="93"/>
+      <c r="R13" s="93"/>
+      <c r="S13" s="93"/>
+      <c r="T13" s="93"/>
+      <c r="U13" s="93"/>
+      <c r="V13" s="93"/>
     </row>
     <row r="14" spans="1:22">
-      <c r="A14" s="115" t="s">
+      <c r="A14" s="124" t="s">
         <v>94</v>
       </c>
       <c r="B14" s="39" t="s">
         <v>95</v>
       </c>
-      <c r="C14" s="117" t="s">
+      <c r="C14" s="128" t="s">
         <v>96</v>
       </c>
-      <c r="D14" s="119" t="s">
+      <c r="D14" s="126" t="s">
         <v>86</v>
       </c>
-      <c r="E14" s="96" t="s">
+      <c r="E14" s="94" t="s">
         <v>114</v>
       </c>
-      <c r="F14" s="74"/>
-      <c r="G14" s="74"/>
-      <c r="H14" s="74"/>
-      <c r="I14" s="74"/>
-      <c r="J14" s="74"/>
-      <c r="K14" s="74"/>
-      <c r="L14" s="74"/>
-      <c r="M14" s="74"/>
-      <c r="N14" s="74"/>
-      <c r="O14" s="74"/>
-      <c r="P14" s="74"/>
-      <c r="Q14" s="74"/>
-      <c r="R14" s="74"/>
-      <c r="S14" s="74"/>
-      <c r="T14" s="74"/>
-      <c r="U14" s="74"/>
-      <c r="V14" s="74"/>
+      <c r="F14" s="108"/>
+      <c r="G14" s="108"/>
+      <c r="H14" s="108"/>
+      <c r="I14" s="108"/>
+      <c r="J14" s="108"/>
+      <c r="K14" s="108"/>
+      <c r="L14" s="108"/>
+      <c r="M14" s="108"/>
+      <c r="N14" s="108"/>
+      <c r="O14" s="108"/>
+      <c r="P14" s="108"/>
+      <c r="Q14" s="108"/>
+      <c r="R14" s="108"/>
+      <c r="S14" s="108"/>
+      <c r="T14" s="108"/>
+      <c r="U14" s="108"/>
+      <c r="V14" s="108"/>
     </row>
     <row r="15" spans="1:22" ht="14.25" thickBot="1">
-      <c r="A15" s="116"/>
+      <c r="A15" s="127"/>
       <c r="B15" s="44" t="s">
         <v>103</v>
       </c>
-      <c r="C15" s="118"/>
-      <c r="D15" s="120"/>
-      <c r="E15" s="114"/>
-      <c r="F15" s="75"/>
-      <c r="G15" s="80"/>
-      <c r="H15" s="80"/>
-      <c r="I15" s="80"/>
-      <c r="J15" s="80"/>
-      <c r="K15" s="80"/>
-      <c r="L15" s="80"/>
-      <c r="M15" s="80"/>
-      <c r="N15" s="80"/>
-      <c r="O15" s="80"/>
-      <c r="P15" s="80"/>
-      <c r="Q15" s="80"/>
-      <c r="R15" s="80"/>
-      <c r="S15" s="80"/>
-      <c r="T15" s="80"/>
-      <c r="U15" s="80"/>
-      <c r="V15" s="80"/>
+      <c r="C15" s="129"/>
+      <c r="D15" s="130"/>
+      <c r="E15" s="95"/>
+      <c r="F15" s="111"/>
+      <c r="G15" s="110"/>
+      <c r="H15" s="110"/>
+      <c r="I15" s="110"/>
+      <c r="J15" s="110"/>
+      <c r="K15" s="110"/>
+      <c r="L15" s="110"/>
+      <c r="M15" s="110"/>
+      <c r="N15" s="110"/>
+      <c r="O15" s="110"/>
+      <c r="P15" s="110"/>
+      <c r="Q15" s="110"/>
+      <c r="R15" s="110"/>
+      <c r="S15" s="110"/>
+      <c r="T15" s="110"/>
+      <c r="U15" s="110"/>
+      <c r="V15" s="110"/>
     </row>
     <row r="16" spans="1:22">
-      <c r="A16" s="128" t="s">
+      <c r="A16" s="115" t="s">
         <v>42</v>
       </c>
       <c r="B16" s="52" t="s">
@@ -3806,7 +3807,7 @@
       <c r="V16" s="55"/>
     </row>
     <row r="17" spans="1:22">
-      <c r="A17" s="129"/>
+      <c r="A17" s="116"/>
       <c r="B17" s="51"/>
       <c r="C17" s="51"/>
       <c r="D17" s="70"/>
@@ -3830,7 +3831,7 @@
       <c r="V17" s="56"/>
     </row>
     <row r="18" spans="1:22" ht="14.25" thickBot="1">
-      <c r="A18" s="130"/>
+      <c r="A18" s="117"/>
       <c r="B18" s="53"/>
       <c r="C18" s="53"/>
       <c r="D18" s="64"/>
@@ -3855,17 +3856,74 @@
     </row>
   </sheetData>
   <mergeCells count="103">
-    <mergeCell ref="V12:V13"/>
-    <mergeCell ref="Q12:Q13"/>
-    <mergeCell ref="R12:R13"/>
-    <mergeCell ref="S12:S13"/>
-    <mergeCell ref="T12:T13"/>
-    <mergeCell ref="U12:U13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="N12:N13"/>
-    <mergeCell ref="O12:O13"/>
-    <mergeCell ref="P12:P13"/>
+    <mergeCell ref="S14:S15"/>
+    <mergeCell ref="T14:T15"/>
+    <mergeCell ref="U14:U15"/>
+    <mergeCell ref="V14:V15"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="O14:O15"/>
+    <mergeCell ref="P14:P15"/>
+    <mergeCell ref="Q14:Q15"/>
+    <mergeCell ref="R14:R15"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="T10:T11"/>
+    <mergeCell ref="U10:U11"/>
+    <mergeCell ref="V10:V11"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="P10:P11"/>
+    <mergeCell ref="Q10:Q11"/>
+    <mergeCell ref="R10:R11"/>
+    <mergeCell ref="S10:S11"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="V8:V9"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="U8:U9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
     <mergeCell ref="G12:G13"/>
     <mergeCell ref="H12:H13"/>
     <mergeCell ref="I12:I13"/>
@@ -3890,74 +3948,17 @@
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="H8:H9"/>
     <mergeCell ref="I8:I9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="V8:V9"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="T8:T9"/>
-    <mergeCell ref="U8:U9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="T10:T11"/>
-    <mergeCell ref="U10:U11"/>
-    <mergeCell ref="V10:V11"/>
-    <mergeCell ref="N10:N11"/>
-    <mergeCell ref="O10:O11"/>
-    <mergeCell ref="P10:P11"/>
-    <mergeCell ref="Q10:Q11"/>
-    <mergeCell ref="R10:R11"/>
-    <mergeCell ref="S10:S11"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="S14:S15"/>
-    <mergeCell ref="T14:T15"/>
-    <mergeCell ref="U14:U15"/>
-    <mergeCell ref="V14:V15"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="N14:N15"/>
-    <mergeCell ref="O14:O15"/>
-    <mergeCell ref="P14:P15"/>
-    <mergeCell ref="Q14:Q15"/>
-    <mergeCell ref="R14:R15"/>
+    <mergeCell ref="V12:V13"/>
+    <mergeCell ref="Q12:Q13"/>
+    <mergeCell ref="R12:R13"/>
+    <mergeCell ref="S12:S13"/>
+    <mergeCell ref="T12:T13"/>
+    <mergeCell ref="U12:U13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="O12:O13"/>
+    <mergeCell ref="P12:P13"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3985,98 +3986,98 @@
       </c>
     </row>
     <row r="2" spans="1:22">
-      <c r="A2" s="91" t="s">
+      <c r="A2" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="72" t="s">
+      <c r="B2" s="99" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="87" t="s">
+      <c r="D2" s="101" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="91">
+      <c r="E2" s="97">
         <v>1</v>
       </c>
-      <c r="F2" s="72">
+      <c r="F2" s="99">
         <v>2</v>
       </c>
-      <c r="G2" s="72">
+      <c r="G2" s="99">
         <v>3</v>
       </c>
-      <c r="H2" s="72">
+      <c r="H2" s="99">
         <v>4</v>
       </c>
-      <c r="I2" s="72">
+      <c r="I2" s="99">
         <v>4</v>
       </c>
-      <c r="J2" s="72">
+      <c r="J2" s="99">
         <v>5</v>
       </c>
-      <c r="K2" s="72">
+      <c r="K2" s="99">
         <v>5</v>
       </c>
-      <c r="L2" s="72">
+      <c r="L2" s="99">
         <v>6</v>
       </c>
-      <c r="M2" s="72">
+      <c r="M2" s="99">
         <v>7</v>
       </c>
-      <c r="N2" s="72">
+      <c r="N2" s="99">
         <v>8</v>
       </c>
-      <c r="O2" s="72">
+      <c r="O2" s="99">
         <v>9</v>
       </c>
-      <c r="P2" s="72">
+      <c r="P2" s="99">
         <v>9</v>
       </c>
-      <c r="Q2" s="72">
+      <c r="Q2" s="99">
         <v>9</v>
       </c>
-      <c r="R2" s="72">
+      <c r="R2" s="99">
         <v>10</v>
       </c>
-      <c r="S2" s="72">
+      <c r="S2" s="99">
         <v>11</v>
       </c>
-      <c r="T2" s="72">
+      <c r="T2" s="99">
         <v>12</v>
       </c>
-      <c r="U2" s="72">
+      <c r="U2" s="99">
         <v>13</v>
       </c>
-      <c r="V2" s="72">
+      <c r="V2" s="99">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:22">
-      <c r="A3" s="92"/>
-      <c r="B3" s="73"/>
+      <c r="A3" s="98"/>
+      <c r="B3" s="100"/>
       <c r="C3" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="88"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="73"/>
-      <c r="N3" s="73"/>
-      <c r="O3" s="73"/>
-      <c r="P3" s="73"/>
-      <c r="Q3" s="73"/>
-      <c r="R3" s="73"/>
-      <c r="S3" s="73"/>
-      <c r="T3" s="73"/>
-      <c r="U3" s="73"/>
-      <c r="V3" s="73"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
+      <c r="J3" s="100"/>
+      <c r="K3" s="100"/>
+      <c r="L3" s="100"/>
+      <c r="M3" s="100"/>
+      <c r="N3" s="100"/>
+      <c r="O3" s="100"/>
+      <c r="P3" s="100"/>
+      <c r="Q3" s="100"/>
+      <c r="R3" s="100"/>
+      <c r="S3" s="100"/>
+      <c r="T3" s="100"/>
+      <c r="U3" s="100"/>
+      <c r="V3" s="100"/>
     </row>
     <row r="4" spans="1:22">
       <c r="A4" s="41" t="s">
@@ -4241,307 +4242,307 @@
       <c r="V7" s="26"/>
     </row>
     <row r="8" spans="1:22">
-      <c r="A8" s="131" t="s">
+      <c r="A8" s="135" t="s">
         <v>87</v>
       </c>
       <c r="B8" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="C8" s="133" t="s">
+      <c r="C8" s="137" t="s">
         <v>81</v>
       </c>
-      <c r="D8" s="134" t="s">
+      <c r="D8" s="138" t="s">
         <v>61</v>
       </c>
-      <c r="E8" s="93" t="s">
+      <c r="E8" s="103" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="78"/>
-      <c r="G8" s="78"/>
-      <c r="H8" s="78"/>
-      <c r="I8" s="78"/>
-      <c r="J8" s="78"/>
-      <c r="K8" s="78"/>
-      <c r="L8" s="78"/>
-      <c r="M8" s="78"/>
-      <c r="N8" s="78"/>
-      <c r="O8" s="78"/>
-      <c r="P8" s="78"/>
-      <c r="Q8" s="78"/>
-      <c r="R8" s="78"/>
-      <c r="S8" s="78"/>
-      <c r="T8" s="78"/>
-      <c r="U8" s="78"/>
-      <c r="V8" s="78" t="s">
+      <c r="F8" s="96"/>
+      <c r="G8" s="96"/>
+      <c r="H8" s="96"/>
+      <c r="I8" s="96"/>
+      <c r="J8" s="96"/>
+      <c r="K8" s="96"/>
+      <c r="L8" s="96"/>
+      <c r="M8" s="96"/>
+      <c r="N8" s="96"/>
+      <c r="O8" s="96"/>
+      <c r="P8" s="96"/>
+      <c r="Q8" s="96"/>
+      <c r="R8" s="96"/>
+      <c r="S8" s="96"/>
+      <c r="T8" s="96"/>
+      <c r="U8" s="96"/>
+      <c r="V8" s="96" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:22">
-      <c r="A9" s="132"/>
+      <c r="A9" s="136"/>
       <c r="B9" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="132"/>
-      <c r="D9" s="135"/>
-      <c r="E9" s="94"/>
-      <c r="F9" s="77"/>
-      <c r="G9" s="77"/>
-      <c r="H9" s="77"/>
-      <c r="I9" s="77"/>
-      <c r="J9" s="77"/>
-      <c r="K9" s="77"/>
-      <c r="L9" s="77"/>
-      <c r="M9" s="77"/>
-      <c r="N9" s="77"/>
-      <c r="O9" s="77"/>
-      <c r="P9" s="77"/>
-      <c r="Q9" s="77"/>
-      <c r="R9" s="77"/>
-      <c r="S9" s="77"/>
-      <c r="T9" s="77"/>
-      <c r="U9" s="77"/>
-      <c r="V9" s="77"/>
+      <c r="C9" s="136"/>
+      <c r="D9" s="139"/>
+      <c r="E9" s="91"/>
+      <c r="F9" s="93"/>
+      <c r="G9" s="93"/>
+      <c r="H9" s="93"/>
+      <c r="I9" s="93"/>
+      <c r="J9" s="93"/>
+      <c r="K9" s="93"/>
+      <c r="L9" s="93"/>
+      <c r="M9" s="93"/>
+      <c r="N9" s="93"/>
+      <c r="O9" s="93"/>
+      <c r="P9" s="93"/>
+      <c r="Q9" s="93"/>
+      <c r="R9" s="93"/>
+      <c r="S9" s="93"/>
+      <c r="T9" s="93"/>
+      <c r="U9" s="93"/>
+      <c r="V9" s="93"/>
     </row>
     <row r="10" spans="1:22">
-      <c r="A10" s="122" t="s">
+      <c r="A10" s="125" t="s">
         <v>63</v>
       </c>
       <c r="B10" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="C10" s="122" t="s">
+      <c r="C10" s="125" t="s">
         <v>65</v>
       </c>
-      <c r="D10" s="119" t="s">
+      <c r="D10" s="126" t="s">
         <v>66</v>
       </c>
-      <c r="E10" s="93" t="s">
+      <c r="E10" s="103" t="s">
         <v>37</v>
       </c>
-      <c r="F10" s="74" t="s">
+      <c r="F10" s="108" t="s">
         <v>35</v>
       </c>
-      <c r="G10" s="74" t="s">
+      <c r="G10" s="108" t="s">
         <v>35</v>
       </c>
-      <c r="H10" s="74" t="s">
+      <c r="H10" s="108" t="s">
         <v>50</v>
       </c>
-      <c r="I10" s="74" t="s">
+      <c r="I10" s="108" t="s">
         <v>35</v>
       </c>
-      <c r="J10" s="74" t="s">
+      <c r="J10" s="108" t="s">
         <v>35</v>
       </c>
-      <c r="K10" s="74" t="s">
+      <c r="K10" s="108" t="s">
         <v>35</v>
       </c>
-      <c r="L10" s="74" t="s">
+      <c r="L10" s="108" t="s">
         <v>40</v>
       </c>
-      <c r="M10" s="74" t="s">
+      <c r="M10" s="108" t="s">
         <v>82</v>
       </c>
-      <c r="N10" s="74" t="s">
+      <c r="N10" s="108" t="s">
         <v>35</v>
       </c>
-      <c r="O10" s="74" t="s">
+      <c r="O10" s="108" t="s">
         <v>35</v>
       </c>
-      <c r="P10" s="74" t="s">
+      <c r="P10" s="108" t="s">
         <v>35</v>
       </c>
-      <c r="Q10" s="74" t="s">
+      <c r="Q10" s="108" t="s">
         <v>35</v>
       </c>
-      <c r="R10" s="74" t="s">
+      <c r="R10" s="108" t="s">
         <v>35</v>
       </c>
-      <c r="S10" s="74" t="s">
+      <c r="S10" s="108" t="s">
         <v>35</v>
       </c>
-      <c r="T10" s="74" t="s">
+      <c r="T10" s="108" t="s">
         <v>35</v>
       </c>
-      <c r="U10" s="74" t="s">
+      <c r="U10" s="108" t="s">
         <v>35</v>
       </c>
-      <c r="V10" s="74" t="s">
+      <c r="V10" s="108" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:22">
-      <c r="A11" s="123"/>
+      <c r="A11" s="119"/>
       <c r="B11" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="C11" s="123"/>
-      <c r="D11" s="124"/>
-      <c r="E11" s="94"/>
-      <c r="F11" s="79"/>
-      <c r="G11" s="79"/>
-      <c r="H11" s="79"/>
-      <c r="I11" s="79"/>
-      <c r="J11" s="79"/>
-      <c r="K11" s="79"/>
-      <c r="L11" s="79"/>
-      <c r="M11" s="79"/>
-      <c r="N11" s="79"/>
-      <c r="O11" s="79"/>
-      <c r="P11" s="79"/>
-      <c r="Q11" s="79"/>
-      <c r="R11" s="79"/>
-      <c r="S11" s="79"/>
-      <c r="T11" s="79"/>
-      <c r="U11" s="79"/>
-      <c r="V11" s="79"/>
+      <c r="C11" s="119"/>
+      <c r="D11" s="121"/>
+      <c r="E11" s="91"/>
+      <c r="F11" s="109"/>
+      <c r="G11" s="109"/>
+      <c r="H11" s="109"/>
+      <c r="I11" s="109"/>
+      <c r="J11" s="109"/>
+      <c r="K11" s="109"/>
+      <c r="L11" s="109"/>
+      <c r="M11" s="109"/>
+      <c r="N11" s="109"/>
+      <c r="O11" s="109"/>
+      <c r="P11" s="109"/>
+      <c r="Q11" s="109"/>
+      <c r="R11" s="109"/>
+      <c r="S11" s="109"/>
+      <c r="T11" s="109"/>
+      <c r="U11" s="109"/>
+      <c r="V11" s="109"/>
     </row>
     <row r="12" spans="1:22">
-      <c r="A12" s="122" t="s">
+      <c r="A12" s="125" t="s">
         <v>68</v>
       </c>
       <c r="B12" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="C12" s="122" t="s">
+      <c r="C12" s="125" t="s">
         <v>70</v>
       </c>
-      <c r="D12" s="136" t="s">
+      <c r="D12" s="132" t="s">
         <v>71</v>
       </c>
-      <c r="E12" s="96" t="s">
+      <c r="E12" s="94" t="s">
         <v>85</v>
       </c>
-      <c r="F12" s="74" t="s">
+      <c r="F12" s="108" t="s">
         <v>38</v>
       </c>
-      <c r="G12" s="74" t="s">
+      <c r="G12" s="108" t="s">
         <v>83</v>
       </c>
-      <c r="H12" s="74" t="s">
+      <c r="H12" s="108" t="s">
         <v>39</v>
       </c>
-      <c r="I12" s="74" t="s">
+      <c r="I12" s="108" t="s">
         <v>47</v>
       </c>
-      <c r="J12" s="74" t="s">
+      <c r="J12" s="108" t="s">
         <v>47</v>
       </c>
-      <c r="K12" s="74" t="s">
+      <c r="K12" s="108" t="s">
         <v>39</v>
       </c>
-      <c r="L12" s="74" t="s">
+      <c r="L12" s="108" t="s">
         <v>38</v>
       </c>
-      <c r="M12" s="74" t="s">
+      <c r="M12" s="108" t="s">
         <v>47</v>
       </c>
-      <c r="N12" s="74" t="s">
+      <c r="N12" s="108" t="s">
         <v>38</v>
       </c>
-      <c r="O12" s="74" t="s">
+      <c r="O12" s="108" t="s">
         <v>38</v>
       </c>
-      <c r="P12" s="74"/>
-      <c r="Q12" s="74"/>
-      <c r="R12" s="74"/>
-      <c r="S12" s="74"/>
-      <c r="T12" s="74"/>
-      <c r="U12" s="74"/>
-      <c r="V12" s="74" t="s">
+      <c r="P12" s="108"/>
+      <c r="Q12" s="108"/>
+      <c r="R12" s="108"/>
+      <c r="S12" s="108"/>
+      <c r="T12" s="108"/>
+      <c r="U12" s="108"/>
+      <c r="V12" s="108" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:22">
-      <c r="A13" s="123"/>
+      <c r="A13" s="119"/>
       <c r="B13" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="C13" s="123"/>
-      <c r="D13" s="137"/>
-      <c r="E13" s="97"/>
-      <c r="F13" s="79"/>
-      <c r="G13" s="79"/>
-      <c r="H13" s="79"/>
-      <c r="I13" s="79"/>
-      <c r="J13" s="79"/>
-      <c r="K13" s="79"/>
-      <c r="L13" s="79"/>
-      <c r="M13" s="79"/>
-      <c r="N13" s="79"/>
-      <c r="O13" s="79"/>
-      <c r="P13" s="79"/>
-      <c r="Q13" s="79"/>
-      <c r="R13" s="79"/>
-      <c r="S13" s="79"/>
-      <c r="T13" s="79"/>
-      <c r="U13" s="79"/>
-      <c r="V13" s="79"/>
+      <c r="C13" s="119"/>
+      <c r="D13" s="134"/>
+      <c r="E13" s="104"/>
+      <c r="F13" s="109"/>
+      <c r="G13" s="109"/>
+      <c r="H13" s="109"/>
+      <c r="I13" s="109"/>
+      <c r="J13" s="109"/>
+      <c r="K13" s="109"/>
+      <c r="L13" s="109"/>
+      <c r="M13" s="109"/>
+      <c r="N13" s="109"/>
+      <c r="O13" s="109"/>
+      <c r="P13" s="109"/>
+      <c r="Q13" s="109"/>
+      <c r="R13" s="109"/>
+      <c r="S13" s="109"/>
+      <c r="T13" s="109"/>
+      <c r="U13" s="109"/>
+      <c r="V13" s="109"/>
     </row>
     <row r="14" spans="1:22">
-      <c r="A14" s="122" t="s">
+      <c r="A14" s="125" t="s">
         <v>73</v>
       </c>
       <c r="B14" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="C14" s="117" t="s">
+      <c r="C14" s="128" t="s">
         <v>75</v>
       </c>
-      <c r="D14" s="136" t="s">
+      <c r="D14" s="132" t="s">
         <v>76</v>
       </c>
-      <c r="E14" s="96" t="s">
+      <c r="E14" s="94" t="s">
         <v>83</v>
       </c>
-      <c r="F14" s="74"/>
-      <c r="G14" s="74"/>
-      <c r="H14" s="74"/>
-      <c r="I14" s="74"/>
-      <c r="J14" s="74"/>
-      <c r="K14" s="74"/>
-      <c r="L14" s="74"/>
-      <c r="M14" s="74"/>
-      <c r="N14" s="74"/>
-      <c r="O14" s="74"/>
-      <c r="P14" s="74"/>
-      <c r="Q14" s="74"/>
-      <c r="R14" s="74"/>
-      <c r="S14" s="74"/>
-      <c r="T14" s="74"/>
-      <c r="U14" s="74"/>
-      <c r="V14" s="74" t="s">
+      <c r="F14" s="108"/>
+      <c r="G14" s="108"/>
+      <c r="H14" s="108"/>
+      <c r="I14" s="108"/>
+      <c r="J14" s="108"/>
+      <c r="K14" s="108"/>
+      <c r="L14" s="108"/>
+      <c r="M14" s="108"/>
+      <c r="N14" s="108"/>
+      <c r="O14" s="108"/>
+      <c r="P14" s="108"/>
+      <c r="Q14" s="108"/>
+      <c r="R14" s="108"/>
+      <c r="S14" s="108"/>
+      <c r="T14" s="108"/>
+      <c r="U14" s="108"/>
+      <c r="V14" s="108" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="14.25" thickBot="1">
-      <c r="A15" s="123"/>
+      <c r="A15" s="119"/>
       <c r="B15" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="C15" s="138"/>
-      <c r="D15" s="139"/>
-      <c r="E15" s="114"/>
-      <c r="F15" s="75"/>
-      <c r="G15" s="75"/>
-      <c r="H15" s="75"/>
-      <c r="I15" s="75"/>
-      <c r="J15" s="75"/>
-      <c r="K15" s="75"/>
-      <c r="L15" s="75"/>
-      <c r="M15" s="75"/>
-      <c r="N15" s="75"/>
-      <c r="O15" s="75"/>
-      <c r="P15" s="75"/>
-      <c r="Q15" s="75"/>
-      <c r="R15" s="75"/>
-      <c r="S15" s="75"/>
-      <c r="T15" s="75"/>
-      <c r="U15" s="75"/>
-      <c r="V15" s="75"/>
+      <c r="C15" s="131"/>
+      <c r="D15" s="133"/>
+      <c r="E15" s="95"/>
+      <c r="F15" s="111"/>
+      <c r="G15" s="111"/>
+      <c r="H15" s="111"/>
+      <c r="I15" s="111"/>
+      <c r="J15" s="111"/>
+      <c r="K15" s="111"/>
+      <c r="L15" s="111"/>
+      <c r="M15" s="111"/>
+      <c r="N15" s="111"/>
+      <c r="O15" s="111"/>
+      <c r="P15" s="111"/>
+      <c r="Q15" s="111"/>
+      <c r="R15" s="111"/>
+      <c r="S15" s="111"/>
+      <c r="T15" s="111"/>
+      <c r="U15" s="111"/>
+      <c r="V15" s="111"/>
     </row>
     <row r="16" spans="1:22">
-      <c r="A16" s="81" t="s">
+      <c r="A16" s="113" t="s">
         <v>42</v>
       </c>
       <c r="B16" s="45" t="s">
@@ -4587,7 +4588,7 @@
       </c>
     </row>
     <row r="17" spans="1:22" ht="14.25" thickBot="1">
-      <c r="A17" s="82"/>
+      <c r="A17" s="114"/>
       <c r="B17" s="33" t="s">
         <v>80</v>
       </c>
@@ -4614,40 +4615,54 @@
     </row>
   </sheetData>
   <mergeCells count="106">
-    <mergeCell ref="T14:T15"/>
-    <mergeCell ref="U14:U15"/>
-    <mergeCell ref="V14:V15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="N14:N15"/>
-    <mergeCell ref="O14:O15"/>
-    <mergeCell ref="P14:P15"/>
-    <mergeCell ref="Q14:Q15"/>
-    <mergeCell ref="R14:R15"/>
-    <mergeCell ref="S14:S15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="Q12:Q13"/>
-    <mergeCell ref="R12:R13"/>
-    <mergeCell ref="S12:S13"/>
-    <mergeCell ref="T12:T13"/>
-    <mergeCell ref="U12:U13"/>
-    <mergeCell ref="V12:V13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="N12:N13"/>
-    <mergeCell ref="O12:O13"/>
-    <mergeCell ref="P12:P13"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="V2:V3"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="U8:U9"/>
+    <mergeCell ref="V8:V9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="L8:L9"/>
     <mergeCell ref="M8:M9"/>
     <mergeCell ref="N8:N9"/>
     <mergeCell ref="V10:V11"/>
@@ -4672,54 +4687,40 @@
     <mergeCell ref="M10:M11"/>
     <mergeCell ref="N10:N11"/>
     <mergeCell ref="O10:O11"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="U8:U9"/>
-    <mergeCell ref="V8:V9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="T8:T9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="V2:V3"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="Q12:Q13"/>
+    <mergeCell ref="R12:R13"/>
+    <mergeCell ref="S12:S13"/>
+    <mergeCell ref="T12:T13"/>
+    <mergeCell ref="U12:U13"/>
+    <mergeCell ref="V12:V13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="O12:O13"/>
+    <mergeCell ref="P12:P13"/>
+    <mergeCell ref="T14:T15"/>
+    <mergeCell ref="U14:U15"/>
+    <mergeCell ref="V14:V15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="O14:O15"/>
+    <mergeCell ref="P14:P15"/>
+    <mergeCell ref="Q14:Q15"/>
+    <mergeCell ref="R14:R15"/>
+    <mergeCell ref="S14:S15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
